--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1535010422376741</v>
+        <v>0.1539808856072447</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1261472261786782</v>
+        <v>0.1239388094325571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2034704398695985</v>
+        <v>0.2022695389696711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2910705638342619</v>
+        <v>0.2930157671764945</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2488497452671132</v>
+        <v>0.2480741309798714</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3028976883435668</v>
+        <v>0.3010019384064289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2310853480295515</v>
+        <v>0.2327208945327771</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1923783509990132</v>
+        <v>0.1963275368198558</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2595781824352107</v>
+        <v>0.2615324709493221</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.211831508706148</v>
+        <v>0.2134500254932944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1813047361298809</v>
+        <v>0.1795690780041193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2691658604118543</v>
+        <v>0.2674349653223551</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3666726497081613</v>
+        <v>0.3658693911839172</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3192329160975105</v>
+        <v>0.3213278611939263</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3595576837398862</v>
+        <v>0.35343453758468</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2778441532557576</v>
+        <v>0.2808621648868566</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2391238091366027</v>
+        <v>0.2392910396907031</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3016645629527022</v>
+        <v>0.3039637498606321</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.14756872536483</v>
+        <v>0.1502282141191721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1315524551822662</v>
+        <v>0.1281642477581769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1329482309621406</v>
+        <v>0.1323988639434527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2746131084359114</v>
+        <v>0.2727132476778721</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.230424080137459</v>
+        <v>0.2327742093924594</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2892607831904955</v>
+        <v>0.2864573456123485</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2183922927062245</v>
+        <v>0.2186192495513209</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1880780415733758</v>
+        <v>0.188637356953006</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2173264874488004</v>
+        <v>0.2175667152685283</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1968985357528554</v>
+        <v>0.1992897285297446</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1744307686658738</v>
+        <v>0.1735857230433425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1778140958764717</v>
+        <v>0.1795696933307484</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3313015157569292</v>
+        <v>0.3323622611021772</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2890616583822928</v>
+        <v>0.2883614670890596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3368723683662668</v>
+        <v>0.3341886603588287</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2577623480885459</v>
+        <v>0.2587140439803862</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2242298816470067</v>
+        <v>0.2260368808309315</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.250545785014941</v>
+        <v>0.2523739124621632</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1199666008385994</v>
+        <v>0.1209362981778714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1135079449449416</v>
+        <v>0.1137473067853111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1403064365237697</v>
+        <v>0.1425363169115813</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.223969697280568</v>
+        <v>0.2230590452201444</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2012212953089332</v>
+        <v>0.197872101385609</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2881616454816249</v>
+        <v>0.2869172076399865</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1811291682438778</v>
+        <v>0.1796280729026222</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.165741297195182</v>
+        <v>0.1649715887831659</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2220979043436493</v>
+        <v>0.2227757819660764</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1783786220092848</v>
+        <v>0.1773900624425287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1657789531324106</v>
+        <v>0.1632033652761817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1981594285248535</v>
+        <v>0.1984387184716563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2924745468033117</v>
+        <v>0.2896586509913793</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2675890202150926</v>
+        <v>0.260875982784782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3488416747764874</v>
+        <v>0.3477951062969087</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2263740912286689</v>
+        <v>0.2244214231401602</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2085014588524723</v>
+        <v>0.2061833737626524</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2629147130714798</v>
+        <v>0.2640200068582896</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1513149953752721</v>
+        <v>0.1541787917510538</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1334274695805225</v>
+        <v>0.1326282928286883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.163061485635207</v>
+        <v>0.1598167322083234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2590127259275679</v>
+        <v>0.2579558228969279</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2318173855948227</v>
+        <v>0.2326003603769445</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3126846811172911</v>
+        <v>0.3127499839152879</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2155642531919341</v>
+        <v>0.2164383339858716</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1920855313743146</v>
+        <v>0.1917836664452299</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2496478938266438</v>
+        <v>0.2474475778819409</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.201151779891171</v>
+        <v>0.2067679059856172</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1824201638712518</v>
+        <v>0.1809256211997948</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2107800959885095</v>
+        <v>0.2096328279112239</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3204904775171357</v>
+        <v>0.3152359008688405</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2890344391542317</v>
+        <v>0.2893380407314609</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3616689716026249</v>
+        <v>0.3599026352127868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2532498273516761</v>
+        <v>0.2541200186749438</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2293556593798886</v>
+        <v>0.2305865441117097</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2821568481479645</v>
+        <v>0.2828534557671722</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>107983</v>
+        <v>108321</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>85124</v>
+        <v>83634</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>140539</v>
+        <v>139710</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>202891</v>
+        <v>204247</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>167436</v>
+        <v>166914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>222381</v>
+        <v>220990</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>323639</v>
+        <v>325930</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>259257</v>
+        <v>264579</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>369870</v>
+        <v>372655</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149017</v>
+        <v>150155</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>122344</v>
+        <v>121173</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>185916</v>
+        <v>184720</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>255589</v>
+        <v>255029</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>214792</v>
+        <v>216202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>263980</v>
+        <v>259485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>389126</v>
+        <v>393353</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>322253</v>
+        <v>322478</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>429839</v>
+        <v>433115</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>150217</v>
+        <v>152924</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>134503</v>
+        <v>131039</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>139452</v>
+        <v>138875</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>283451</v>
+        <v>281490</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>240312</v>
+        <v>242763</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>309935</v>
+        <v>306932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>447733</v>
+        <v>448198</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>388446</v>
+        <v>389601</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>460817</v>
+        <v>461327</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>200432</v>
+        <v>202866</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>178343</v>
+        <v>177479</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>186512</v>
+        <v>188354</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>341964</v>
+        <v>343059</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>301466</v>
+        <v>300736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>360950</v>
+        <v>358074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>528447</v>
+        <v>530398</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>463112</v>
+        <v>466844</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>531255</v>
+        <v>535131</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>90889</v>
+        <v>91624</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86215</v>
+        <v>86397</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>112676</v>
+        <v>114467</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>174063</v>
+        <v>173356</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157961</v>
+        <v>155332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>234062</v>
+        <v>233051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>277997</v>
+        <v>275693</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>255998</v>
+        <v>254809</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>358762</v>
+        <v>359857</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>135144</v>
+        <v>134395</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>125918</v>
+        <v>123961</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>159136</v>
+        <v>159361</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>227304</v>
+        <v>225115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>210060</v>
+        <v>204791</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>283350</v>
+        <v>282500</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>347438</v>
+        <v>344441</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>322044</v>
+        <v>318463</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>424695</v>
+        <v>426480</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>143407</v>
+        <v>146121</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>125097</v>
+        <v>124348</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>161441</v>
+        <v>158228</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>272456</v>
+        <v>271344</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>241966</v>
+        <v>242783</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>349907</v>
+        <v>349980</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>431051</v>
+        <v>432799</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>380588</v>
+        <v>379990</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>526533</v>
+        <v>521893</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>190639</v>
+        <v>195962</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>171031</v>
+        <v>169630</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>208685</v>
+        <v>207549</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>337124</v>
+        <v>331597</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>301688</v>
+        <v>302005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>404722</v>
+        <v>402746</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>506408</v>
+        <v>508149</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>454433</v>
+        <v>456872</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>595098</v>
+        <v>596567</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
     </row>
     <row r="24">
